--- a/Classwork Excel_SS_JT.xlsx
+++ b/Classwork Excel_SS_JT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1 Corporate Training\Six Sigma JT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B42955-0169-4474-9073-17FDA72C0B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAEBA90-71EC-4BA6-90E0-FB91FAE1FDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{F8D5AFBA-B222-4F97-AF74-A894B05780B6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{F8D5AFBA-B222-4F97-AF74-A894B05780B6}"/>
   </bookViews>
   <sheets>
     <sheet name="PERT Example-1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,19 @@
     <sheet name="Correlation &amp; Regression" sheetId="3" r:id="rId3"/>
     <sheet name="Multiple Regression" sheetId="4" r:id="rId4"/>
     <sheet name="SPC-1" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="SPC-2" sheetId="6" r:id="rId6"/>
+    <sheet name="ANOVA MiniTab" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'SPC-2'!$L$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'SPC-2'!$L$3:$L$27</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'SPC-2'!$N$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'SPC-2'!$N$3:$N$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'SPC-2'!$O$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'SPC-2'!$O$3:$O$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'SPC-2'!$P$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'SPC-2'!$P$3:$P$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
   <si>
     <t>Activity</t>
   </si>
@@ -318,16 +329,135 @@
   <si>
     <t>Count</t>
   </si>
+  <si>
+    <t>1 15.85 16.02 15.83 15.93 15.91 0.19</t>
+  </si>
+  <si>
+    <t>2 16.12 16.00 15.85 16.01 15.99 0.27</t>
+  </si>
+  <si>
+    <t>3 16.00 15.91 15.94 15.83 15.92 0.17</t>
+  </si>
+  <si>
+    <t>4 16.20 15.85 15.74 15.93 15.93 0.46</t>
+  </si>
+  <si>
+    <t>5 15.74 15.86 16.21 16.10 15.98 0.47</t>
+  </si>
+  <si>
+    <t>6 15.94 16.01 16.14 16.03 16.03 0.20</t>
+  </si>
+  <si>
+    <t>7 15.75 16.21 16.01 15.86 15.96 0.46</t>
+  </si>
+  <si>
+    <t>8 15.82 15.94 16.02 15.94 15.93 0.20</t>
+  </si>
+  <si>
+    <t>9 16.04 15.98 15.83 15.98 15.96 0.21</t>
+  </si>
+  <si>
+    <t>10 15.64 15.86 15.94 15.89 15.83 0.30</t>
+  </si>
+  <si>
+    <t>11 16.11 16.00 16.01 15.82 15.99 0.29</t>
+  </si>
+  <si>
+    <t>12 15.72 15.85 16.12 16.15 15.96 0.43</t>
+  </si>
+  <si>
+    <t>13 15.85 15.76 15.74 15.98 15.83 0.24</t>
+  </si>
+  <si>
+    <t>14 15.73 15.84 15.96 16.10 15.91 0.37</t>
+  </si>
+  <si>
+    <t>15 16.20 16.01 16.10 15.89 16.05 0.31</t>
+  </si>
+  <si>
+    <t>16 16.12 16.08 15.83 15.94 15.99 0.29</t>
+  </si>
+  <si>
+    <t>17 16.01 15.93 15.81 15.68 15.86 0.33</t>
+  </si>
+  <si>
+    <t>18 15.78 16.04 16.11 16.12 16.01 0.34</t>
+  </si>
+  <si>
+    <t>19 15.84 15.92 16.05 16.12 15.98 0.28</t>
+  </si>
+  <si>
+    <t>20 15.92 16.09 16.12 15.93 16.02 0.20</t>
+  </si>
+  <si>
+    <t>21 16.11 16.02 16.00 15.88 16.00 0.23</t>
+  </si>
+  <si>
+    <t>22 15.98 15.82 15.89 15.89 15.90 0.16</t>
+  </si>
+  <si>
+    <t>23 16.05 15.73 15.73 15.93 15.86 0.32</t>
+  </si>
+  <si>
+    <t>24 16.01 16.01 15.89 15.86 15.94 0.15</t>
+  </si>
+  <si>
+    <t>25 16.08 15.78 15.92 15.98 15.94 0.30</t>
+  </si>
+  <si>
+    <t>x-bar</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>x-bar-bar =</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>COUNTA</t>
+  </si>
+  <si>
+    <t>COUNTBLANK</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>z =</t>
+  </si>
+  <si>
+    <t>Sigma-x-bar =</t>
+  </si>
+  <si>
+    <t>Sigma (Pop) =</t>
+  </si>
+  <si>
+    <t>(Sample Size)</t>
+  </si>
+  <si>
+    <t>UCL =</t>
+  </si>
+  <si>
+    <t>LCL =</t>
+  </si>
+  <si>
+    <t>3.60 2.40 2.80 3.21 2.40 2.75 2.79 3.40 2.58 2.50</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="173" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +513,13 @@
       <color rgb="FF595959"/>
       <name val="SegoeUI-Italic"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
+      <name val="FEF1C1F3BAB-Roman"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +529,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -978,6 +1119,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2432,6 +2583,1843 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>x-bar Chart on Soft Drinks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPC-2'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x-bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPC-2'!$L$3:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.907499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.977500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.985000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.907500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.8575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.012499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.982500000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.002499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.942500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A41-4BE8-A185-F1605418C09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPC-2'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x-bar-bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPC-2'!$N$3:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A41-4BE8-A185-F1605418C09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPC-2'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPC-2'!$O$3:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A41-4BE8-A185-F1605418C09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPC-2'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPC-2'!$P$3:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7A41-4BE8-A185-F1605418C09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1905297760"/>
+        <c:axId val="1905301920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1905297760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Sample Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905301920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1905301920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Different Measures</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905297760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>x-bar Chart on Soft Drinks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPC-2'!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x-bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPC-2'!$L$3:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.907499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.977500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.9575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.985000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.8325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.907500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.9925</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.8575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.012499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.982500000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.015000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.002499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.942500000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5272-4B96-BB8A-87AA83C30236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPC-2'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>x-bar-bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPC-2'!$N$3:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.946900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5272-4B96-BB8A-87AA83C30236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPC-2'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPC-2'!$O$3:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.030900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5272-4B96-BB8A-87AA83C30236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPC-2'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPC-2'!$P$3:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.862900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5272-4B96-BB8A-87AA83C30236}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1905297760"/>
+        <c:axId val="1905301920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1905297760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Sample Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905301920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1905301920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Different Measures</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905297760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="C00000"/>
+      </a:solidFill>
+      <a:round/>
+      <a:extLst>
+        <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+          <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+            <ask:type>
+              <ask:lineSketchNone/>
+            </ask:type>
+          </ask:lineSketchStyleProps>
+        </a:ext>
+      </a:extLst>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2473,6 +4461,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3531,6 +5599,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3868,6 +6942,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>669924</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>393699</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D374BDF3-D612-C507-A016-3872751B7286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAFF739-990F-49A6-8EB1-4AE2FE6C8D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6034,7 +9187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EB0C74-1FF2-469F-AF37-F03B2FE6ADF1}">
   <dimension ref="B1:AB443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -9972,12 +13127,3173 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D57999-72ED-4679-B9F3-A3D42E8F1BF1}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.7265625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16">
+      <c r="F1" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="3:16" ht="29">
+      <c r="E2" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="52">
+        <v>1</v>
+      </c>
+      <c r="G2" s="52">
+        <v>2</v>
+      </c>
+      <c r="H2" s="52">
+        <v>3</v>
+      </c>
+      <c r="I2" s="52">
+        <v>4</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16">
+      <c r="C3" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>15.85</v>
+      </c>
+      <c r="G3">
+        <v>16.02</v>
+      </c>
+      <c r="H3">
+        <v>15.83</v>
+      </c>
+      <c r="I3">
+        <v>15.93</v>
+      </c>
+      <c r="J3" s="65">
+        <v>15.91</v>
+      </c>
+      <c r="K3" s="65">
+        <v>0.19</v>
+      </c>
+      <c r="L3" s="53">
+        <f>AVERAGE(F3:I3)</f>
+        <v>15.907499999999999</v>
+      </c>
+      <c r="M3" s="53">
+        <f>MAX(F3:I3)-MIN(F3:I3)</f>
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="N3" s="53">
+        <f>$H$30</f>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O3">
+        <f>$H$35</f>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P3">
+        <f>$H$36</f>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>16.12</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>15.85</v>
+      </c>
+      <c r="I4">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="J4" s="65">
+        <v>15.99</v>
+      </c>
+      <c r="K4" s="65">
+        <v>0.27</v>
+      </c>
+      <c r="L4" s="53">
+        <f t="shared" ref="L4:L27" si="0">AVERAGE(F4:I4)</f>
+        <v>15.995000000000001</v>
+      </c>
+      <c r="M4" s="53">
+        <f t="shared" ref="M4:M27" si="1">MAX(F4:I4)-MIN(F4:I4)</f>
+        <v>0.27000000000000135</v>
+      </c>
+      <c r="N4" s="53">
+        <f t="shared" ref="N4:N27" si="2">$H$30</f>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O27" si="3">$H$35</f>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P27" si="4">$H$36</f>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>15.91</v>
+      </c>
+      <c r="H5">
+        <v>15.94</v>
+      </c>
+      <c r="I5">
+        <v>15.83</v>
+      </c>
+      <c r="J5" s="65">
+        <v>15.92</v>
+      </c>
+      <c r="K5" s="65">
+        <v>0.17</v>
+      </c>
+      <c r="L5" s="53">
+        <f t="shared" si="0"/>
+        <v>15.92</v>
+      </c>
+      <c r="M5" s="53">
+        <f t="shared" si="1"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="N5" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="C6" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>16.2</v>
+      </c>
+      <c r="G6">
+        <v>15.85</v>
+      </c>
+      <c r="H6">
+        <v>15.74</v>
+      </c>
+      <c r="I6">
+        <v>15.93</v>
+      </c>
+      <c r="J6" s="65">
+        <v>15.93</v>
+      </c>
+      <c r="K6" s="65">
+        <v>0.46</v>
+      </c>
+      <c r="L6" s="53">
+        <f t="shared" si="0"/>
+        <v>15.93</v>
+      </c>
+      <c r="M6" s="53">
+        <f t="shared" si="1"/>
+        <v>0.45999999999999908</v>
+      </c>
+      <c r="N6" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="C7" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>15.74</v>
+      </c>
+      <c r="G7">
+        <v>15.86</v>
+      </c>
+      <c r="H7">
+        <v>16.21</v>
+      </c>
+      <c r="I7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J7" s="65">
+        <v>15.98</v>
+      </c>
+      <c r="K7" s="65">
+        <v>0.47</v>
+      </c>
+      <c r="L7" s="53">
+        <f t="shared" si="0"/>
+        <v>15.977500000000001</v>
+      </c>
+      <c r="M7" s="53">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="N7" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16">
+      <c r="C8" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>15.94</v>
+      </c>
+      <c r="G8">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="H8">
+        <v>16.14</v>
+      </c>
+      <c r="I8">
+        <v>16.03</v>
+      </c>
+      <c r="J8" s="65">
+        <v>16.03</v>
+      </c>
+      <c r="K8" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="53">
+        <f t="shared" si="0"/>
+        <v>16.03</v>
+      </c>
+      <c r="M8" s="53">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="N8" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>15.75</v>
+      </c>
+      <c r="G9">
+        <v>16.21</v>
+      </c>
+      <c r="H9">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="I9">
+        <v>15.86</v>
+      </c>
+      <c r="J9" s="65">
+        <v>15.96</v>
+      </c>
+      <c r="K9" s="65">
+        <v>0.46</v>
+      </c>
+      <c r="L9" s="53">
+        <f t="shared" si="0"/>
+        <v>15.9575</v>
+      </c>
+      <c r="M9" s="53">
+        <f t="shared" si="1"/>
+        <v>0.46000000000000085</v>
+      </c>
+      <c r="N9" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="C10" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>15.82</v>
+      </c>
+      <c r="G10">
+        <v>15.94</v>
+      </c>
+      <c r="H10">
+        <v>16.02</v>
+      </c>
+      <c r="I10">
+        <v>15.94</v>
+      </c>
+      <c r="J10" s="65">
+        <v>15.93</v>
+      </c>
+      <c r="K10" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="53">
+        <f t="shared" si="0"/>
+        <v>15.93</v>
+      </c>
+      <c r="M10" s="53">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="N10" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>16.04</v>
+      </c>
+      <c r="G11">
+        <v>15.98</v>
+      </c>
+      <c r="H11">
+        <v>15.83</v>
+      </c>
+      <c r="I11">
+        <v>15.98</v>
+      </c>
+      <c r="J11" s="65">
+        <v>15.96</v>
+      </c>
+      <c r="K11" s="65">
+        <v>0.21</v>
+      </c>
+      <c r="L11" s="53">
+        <f t="shared" si="0"/>
+        <v>15.9575</v>
+      </c>
+      <c r="M11" s="53">
+        <f t="shared" si="1"/>
+        <v>0.20999999999999908</v>
+      </c>
+      <c r="N11" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>15.64</v>
+      </c>
+      <c r="G12">
+        <v>15.86</v>
+      </c>
+      <c r="H12">
+        <v>15.94</v>
+      </c>
+      <c r="I12">
+        <v>15.89</v>
+      </c>
+      <c r="J12" s="65">
+        <v>15.83</v>
+      </c>
+      <c r="K12" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="53">
+        <f t="shared" si="0"/>
+        <v>15.8325</v>
+      </c>
+      <c r="M12" s="53">
+        <f t="shared" si="1"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="N12" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>16.11</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="I13">
+        <v>15.82</v>
+      </c>
+      <c r="J13" s="65">
+        <v>15.99</v>
+      </c>
+      <c r="K13" s="65">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L13" s="53">
+        <f t="shared" si="0"/>
+        <v>15.985000000000001</v>
+      </c>
+      <c r="M13" s="53">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="N13" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>15.72</v>
+      </c>
+      <c r="G14">
+        <v>15.85</v>
+      </c>
+      <c r="H14">
+        <v>16.12</v>
+      </c>
+      <c r="I14">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="J14" s="65">
+        <v>15.96</v>
+      </c>
+      <c r="K14" s="65">
+        <v>0.43</v>
+      </c>
+      <c r="L14" s="53">
+        <f t="shared" si="0"/>
+        <v>15.959999999999999</v>
+      </c>
+      <c r="M14" s="53">
+        <f t="shared" si="1"/>
+        <v>0.42999999999999794</v>
+      </c>
+      <c r="N14" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
+      <c r="C15" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>15.85</v>
+      </c>
+      <c r="G15">
+        <v>15.76</v>
+      </c>
+      <c r="H15">
+        <v>15.74</v>
+      </c>
+      <c r="I15">
+        <v>15.98</v>
+      </c>
+      <c r="J15" s="65">
+        <v>15.83</v>
+      </c>
+      <c r="K15" s="65">
+        <v>0.24</v>
+      </c>
+      <c r="L15" s="53">
+        <f t="shared" si="0"/>
+        <v>15.8325</v>
+      </c>
+      <c r="M15" s="53">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="N15" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>15.73</v>
+      </c>
+      <c r="G16">
+        <v>15.84</v>
+      </c>
+      <c r="H16">
+        <v>15.96</v>
+      </c>
+      <c r="I16">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J16" s="65">
+        <v>15.91</v>
+      </c>
+      <c r="K16" s="65">
+        <v>0.37</v>
+      </c>
+      <c r="L16" s="53">
+        <f t="shared" si="0"/>
+        <v>15.907500000000001</v>
+      </c>
+      <c r="M16" s="53">
+        <f t="shared" si="1"/>
+        <v>0.37000000000000099</v>
+      </c>
+      <c r="N16" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16">
+      <c r="C17" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>16.2</v>
+      </c>
+      <c r="G17">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="H17">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I17">
+        <v>15.89</v>
+      </c>
+      <c r="J17" s="65">
+        <v>16.05</v>
+      </c>
+      <c r="K17" s="65">
+        <v>0.31</v>
+      </c>
+      <c r="L17" s="53">
+        <f t="shared" si="0"/>
+        <v>16.05</v>
+      </c>
+      <c r="M17" s="53">
+        <f t="shared" si="1"/>
+        <v>0.30999999999999872</v>
+      </c>
+      <c r="N17" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="C18" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>16.12</v>
+      </c>
+      <c r="G18">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="H18">
+        <v>15.83</v>
+      </c>
+      <c r="I18">
+        <v>15.94</v>
+      </c>
+      <c r="J18" s="65">
+        <v>15.99</v>
+      </c>
+      <c r="K18" s="65">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L18" s="53">
+        <f t="shared" si="0"/>
+        <v>15.9925</v>
+      </c>
+      <c r="M18" s="53">
+        <f t="shared" si="1"/>
+        <v>0.29000000000000092</v>
+      </c>
+      <c r="N18" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="C19" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G19">
+        <v>15.93</v>
+      </c>
+      <c r="H19">
+        <v>15.81</v>
+      </c>
+      <c r="I19">
+        <v>15.68</v>
+      </c>
+      <c r="J19" s="65">
+        <v>15.86</v>
+      </c>
+      <c r="K19" s="65">
+        <v>0.33</v>
+      </c>
+      <c r="L19" s="53">
+        <f t="shared" si="0"/>
+        <v>15.8575</v>
+      </c>
+      <c r="M19" s="53">
+        <f t="shared" si="1"/>
+        <v>0.33000000000000185</v>
+      </c>
+      <c r="N19" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>15.78</v>
+      </c>
+      <c r="G20">
+        <v>16.04</v>
+      </c>
+      <c r="H20">
+        <v>16.11</v>
+      </c>
+      <c r="I20">
+        <v>16.12</v>
+      </c>
+      <c r="J20" s="65">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="K20" s="65">
+        <v>0.34</v>
+      </c>
+      <c r="L20" s="53">
+        <f t="shared" si="0"/>
+        <v>16.012499999999999</v>
+      </c>
+      <c r="M20" s="53">
+        <f t="shared" si="1"/>
+        <v>0.34000000000000163</v>
+      </c>
+      <c r="N20" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
+      <c r="C21" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>15.84</v>
+      </c>
+      <c r="G21">
+        <v>15.92</v>
+      </c>
+      <c r="H21">
+        <v>16.05</v>
+      </c>
+      <c r="I21">
+        <v>16.12</v>
+      </c>
+      <c r="J21" s="65">
+        <v>15.98</v>
+      </c>
+      <c r="K21" s="65">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L21" s="53">
+        <f t="shared" si="0"/>
+        <v>15.982500000000002</v>
+      </c>
+      <c r="M21" s="53">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="N21" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16">
+      <c r="C22" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>15.92</v>
+      </c>
+      <c r="G22">
+        <v>16.09</v>
+      </c>
+      <c r="H22">
+        <v>16.12</v>
+      </c>
+      <c r="I22">
+        <v>15.93</v>
+      </c>
+      <c r="J22" s="65">
+        <v>16.02</v>
+      </c>
+      <c r="K22" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="53">
+        <f t="shared" si="0"/>
+        <v>16.015000000000001</v>
+      </c>
+      <c r="M22" s="53">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000107</v>
+      </c>
+      <c r="N22" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="C23" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>16.11</v>
+      </c>
+      <c r="G23">
+        <v>16.02</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>15.88</v>
+      </c>
+      <c r="J23" s="65">
+        <v>16</v>
+      </c>
+      <c r="K23" s="65">
+        <v>0.23</v>
+      </c>
+      <c r="L23" s="53">
+        <f t="shared" si="0"/>
+        <v>16.002499999999998</v>
+      </c>
+      <c r="M23" s="53">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999865</v>
+      </c>
+      <c r="N23" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16">
+      <c r="C24" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>15.98</v>
+      </c>
+      <c r="G24">
+        <v>15.82</v>
+      </c>
+      <c r="H24">
+        <v>15.89</v>
+      </c>
+      <c r="I24">
+        <v>15.89</v>
+      </c>
+      <c r="J24" s="65">
+        <v>15.9</v>
+      </c>
+      <c r="K24" s="65">
+        <v>0.16</v>
+      </c>
+      <c r="L24" s="53">
+        <f t="shared" si="0"/>
+        <v>15.895</v>
+      </c>
+      <c r="M24" s="53">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="N24" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16">
+      <c r="C25" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>16.05</v>
+      </c>
+      <c r="G25">
+        <v>15.73</v>
+      </c>
+      <c r="H25">
+        <v>15.73</v>
+      </c>
+      <c r="I25">
+        <v>15.93</v>
+      </c>
+      <c r="J25" s="65">
+        <v>15.86</v>
+      </c>
+      <c r="K25" s="65">
+        <v>0.32</v>
+      </c>
+      <c r="L25" s="53">
+        <f t="shared" si="0"/>
+        <v>15.860000000000001</v>
+      </c>
+      <c r="M25" s="53">
+        <f t="shared" si="1"/>
+        <v>0.32000000000000028</v>
+      </c>
+      <c r="N25" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16">
+      <c r="C26" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="G26">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="H26">
+        <v>15.89</v>
+      </c>
+      <c r="I26">
+        <v>15.86</v>
+      </c>
+      <c r="J26" s="65">
+        <v>15.94</v>
+      </c>
+      <c r="K26" s="65">
+        <v>0.15</v>
+      </c>
+      <c r="L26" s="53">
+        <f t="shared" si="0"/>
+        <v>15.942500000000001</v>
+      </c>
+      <c r="M26" s="53">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000213</v>
+      </c>
+      <c r="N26" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16">
+      <c r="C27" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G27">
+        <v>15.78</v>
+      </c>
+      <c r="H27">
+        <v>15.92</v>
+      </c>
+      <c r="I27">
+        <v>15.98</v>
+      </c>
+      <c r="J27" s="65">
+        <v>15.94</v>
+      </c>
+      <c r="K27" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="L27" s="53">
+        <f t="shared" si="0"/>
+        <v>15.940000000000001</v>
+      </c>
+      <c r="M27" s="53">
+        <f t="shared" si="1"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="N27" s="53">
+        <f t="shared" si="2"/>
+        <v>15.946900000000003</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>16.030900000000003</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16">
+      <c r="G30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="53">
+        <f>AVERAGE(L3:L27)</f>
+        <v>15.946900000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16">
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31">
+        <f>COUNTA(E3:E27)</f>
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16">
+      <c r="D32">
+        <v>210</v>
+      </c>
+      <c r="G32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="D34">
+        <v>550</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34">
+        <f>H33/SQRT(H31)</f>
+        <v>2.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35">
+        <f>H30+H32*H34</f>
+        <v>16.030900000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="D36">
+        <v>130</v>
+      </c>
+      <c r="G36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36">
+        <f>H30-H32*H34</f>
+        <v>15.862900000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="D37">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39">
+        <f>COUNT(D31:D37)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <f>COUNTA(D31:D37)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41">
+        <f>COUNTBLANK(D31:D37)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L3:M27" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5A4A87-F11B-411E-979A-30AF67CD40D9}">
+  <dimension ref="D2:Q202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="5" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:12">
+      <c r="D2" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12">
+      <c r="D3" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E3" s="54">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H3" s="67">
+        <v>41337</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(D3:$D$202,H3)</f>
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <f>COUNTA(H3:H22)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12">
+      <c r="D4" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E4" s="54">
+        <v>2.89</v>
+      </c>
+      <c r="H4" s="67">
+        <v>41338</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(D4:$D$202,H4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12">
+      <c r="D5" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E5" s="54">
+        <v>4.2</v>
+      </c>
+      <c r="H5" s="67">
+        <v>41339</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIF(D5:$D$202,H5)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12">
+      <c r="D6" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E6" s="54">
+        <v>2.89</v>
+      </c>
+      <c r="H6" s="67">
+        <v>41340</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIF(D6:$D$202,H6)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12">
+      <c r="D7" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E7" s="54">
+        <v>3.05</v>
+      </c>
+      <c r="H7" s="67">
+        <v>41341</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIF(D7:$D$202,H7)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
+      <c r="D8" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E8" s="54">
+        <v>2.69</v>
+      </c>
+      <c r="H8" s="67">
+        <v>41342</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIF(D8:$D$202,H8)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12">
+      <c r="D9" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E9" s="54">
+        <v>3.39</v>
+      </c>
+      <c r="H9" s="67">
+        <v>41343</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIF(D9:$D$202,H9)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12">
+      <c r="D10" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E10" s="54">
+        <v>2.66</v>
+      </c>
+      <c r="H10" s="67">
+        <v>41344</v>
+      </c>
+      <c r="I10">
+        <f>COUNTIF(D10:$D$202,H10)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
+      <c r="D11" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E11" s="54">
+        <v>2.68</v>
+      </c>
+      <c r="H11" s="67">
+        <v>41345</v>
+      </c>
+      <c r="I11">
+        <f>COUNTIF(D11:$D$202,H11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="D12" s="67">
+        <v>41337</v>
+      </c>
+      <c r="E12" s="54">
+        <v>3.07</v>
+      </c>
+      <c r="H12" s="67">
+        <v>41346</v>
+      </c>
+      <c r="I12">
+        <f>COUNTIF(D12:$D$202,H12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12">
+      <c r="D13" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E13" s="54">
+        <v>4.75</v>
+      </c>
+      <c r="H13" s="67">
+        <v>41347</v>
+      </c>
+      <c r="I13">
+        <f>COUNTIF(D13:$D$202,H13)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12">
+      <c r="D14" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E14" s="54">
+        <v>2.46</v>
+      </c>
+      <c r="H14" s="67">
+        <v>41348</v>
+      </c>
+      <c r="I14">
+        <f>COUNTIF(D14:$D$202,H14)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12">
+      <c r="D15" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E15" s="54">
+        <v>3.12</v>
+      </c>
+      <c r="H15" s="67">
+        <v>41349</v>
+      </c>
+      <c r="I15">
+        <f>COUNTIF(D15:$D$202,H15)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12">
+      <c r="D16" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E16" s="54">
+        <v>3.52</v>
+      </c>
+      <c r="H16" s="67">
+        <v>41350</v>
+      </c>
+      <c r="I16">
+        <f>COUNTIF(D16:$D$202,H16)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17">
+      <c r="D17" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E17" s="54">
+        <v>2.62</v>
+      </c>
+      <c r="H17" s="67">
+        <v>41351</v>
+      </c>
+      <c r="I17">
+        <f>COUNTIF(D17:$D$202,H17)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17">
+      <c r="D18" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E18" s="54">
+        <v>2.63</v>
+      </c>
+      <c r="H18" s="67">
+        <v>41352</v>
+      </c>
+      <c r="I18">
+        <f>COUNTIF(D18:$D$202,H18)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17">
+      <c r="D19" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E19" s="54">
+        <v>2.74</v>
+      </c>
+      <c r="H19" s="67">
+        <v>41353</v>
+      </c>
+      <c r="I19">
+        <f>COUNTIF(D19:$D$202,H19)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17">
+      <c r="D20" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E20" s="54">
+        <v>3.36</v>
+      </c>
+      <c r="H20" s="67">
+        <v>41354</v>
+      </c>
+      <c r="I20">
+        <f>COUNTIF(D20:$D$202,H20)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17">
+      <c r="D21" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E21" s="54">
+        <v>3.46</v>
+      </c>
+      <c r="H21" s="67">
+        <v>41355</v>
+      </c>
+      <c r="I21">
+        <f>COUNTIF(D21:$D$202,H21)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17">
+      <c r="D22" s="67">
+        <v>41338</v>
+      </c>
+      <c r="E22" s="54">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H22" s="67">
+        <v>41356</v>
+      </c>
+      <c r="I22">
+        <f>COUNTIF(D22:$D$202,H22)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17">
+      <c r="D23" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E23" s="54">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17">
+      <c r="D24" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E24" s="54">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17">
+      <c r="D25" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E25" s="54">
+        <v>2.92</v>
+      </c>
+      <c r="H25" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17">
+      <c r="D26" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E26" s="54">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17">
+      <c r="D27" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E27" s="54">
+        <v>2.71</v>
+      </c>
+      <c r="H27">
+        <v>3.6</v>
+      </c>
+      <c r="I27">
+        <v>2.4</v>
+      </c>
+      <c r="J27">
+        <v>2.8</v>
+      </c>
+      <c r="K27">
+        <v>3.21</v>
+      </c>
+      <c r="L27">
+        <v>2.4</v>
+      </c>
+      <c r="M27">
+        <v>2.75</v>
+      </c>
+      <c r="N27">
+        <v>2.79</v>
+      </c>
+      <c r="O27">
+        <v>3.4</v>
+      </c>
+      <c r="P27">
+        <v>2.58</v>
+      </c>
+      <c r="Q27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17">
+      <c r="D28" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E28" s="54">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17">
+      <c r="D29" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E29" s="54">
+        <v>2.71</v>
+      </c>
+      <c r="H29">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17">
+      <c r="D30" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E30" s="54">
+        <v>3.14</v>
+      </c>
+      <c r="H30">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17">
+      <c r="D31" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E31" s="54">
+        <v>2.86</v>
+      </c>
+      <c r="H31">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17">
+      <c r="D32" s="67">
+        <v>41339</v>
+      </c>
+      <c r="E32" s="54">
+        <v>2.41</v>
+      </c>
+      <c r="H32">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E33" s="54">
+        <v>3.55</v>
+      </c>
+      <c r="H33">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8">
+      <c r="D34" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E34" s="54">
+        <v>3.92</v>
+      </c>
+      <c r="H34">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8">
+      <c r="D35" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E35" s="54">
+        <v>2.54</v>
+      </c>
+      <c r="H35">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="D36" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E36" s="54">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H36">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8">
+      <c r="D37" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E37" s="54">
+        <v>3.53</v>
+      </c>
+      <c r="H37">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="D38" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E38" s="54">
+        <v>2.1</v>
+      </c>
+      <c r="H38">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8">
+      <c r="D39" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E39" s="54">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8">
+      <c r="D40" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E40" s="54">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="D41" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E41" s="54">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8">
+      <c r="D42" s="67">
+        <v>41340</v>
+      </c>
+      <c r="E42" s="54">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8">
+      <c r="D43" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E43" s="54">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8">
+      <c r="D44" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E44" s="54">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8">
+      <c r="D45" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E45" s="54">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8">
+      <c r="D46" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E46" s="54">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8">
+      <c r="D47" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E47" s="54">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8">
+      <c r="D48" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E48" s="54">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E49" s="54">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E50" s="54">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E51" s="54">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="67">
+        <v>41341</v>
+      </c>
+      <c r="E52" s="54">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E53" s="54">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E54" s="54">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E55" s="54">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E56" s="54">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E57" s="54">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E58" s="54">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E59" s="54">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E60" s="54">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E61" s="54">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62" s="67">
+        <v>41342</v>
+      </c>
+      <c r="E62" s="54">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E63" s="54">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E64" s="54">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E65" s="54">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E66" s="54">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E67" s="54">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E68" s="54">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E69" s="54">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E70" s="54">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E71" s="54">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72" s="67">
+        <v>41343</v>
+      </c>
+      <c r="E72" s="54">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E73" s="54">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E74" s="54">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E75" s="54">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E76" s="54">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E77" s="54">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E78" s="54">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E79" s="54">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E80" s="54">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E81" s="54">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82" s="67">
+        <v>41344</v>
+      </c>
+      <c r="E82" s="54">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E83" s="54">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E84" s="54">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E85" s="54">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="D86" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E86" s="54">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="D87" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E87" s="54">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E88" s="54">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E89" s="54">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E90" s="54">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5">
+      <c r="D91" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E91" s="54">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5">
+      <c r="D92" s="67">
+        <v>41345</v>
+      </c>
+      <c r="E92" s="54">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5">
+      <c r="D93" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E93" s="54">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5">
+      <c r="D94" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E94" s="54">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5">
+      <c r="D95" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E95" s="54">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5">
+      <c r="D96" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E96" s="54">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5">
+      <c r="D97" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E97" s="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="D98" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E98" s="54">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5">
+      <c r="D99" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E99" s="54">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5">
+      <c r="D100" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E100" s="54">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E101" s="54">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="D102" s="67">
+        <v>41346</v>
+      </c>
+      <c r="E102" s="54">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5">
+      <c r="D103" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E103" s="54">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5">
+      <c r="D104" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E104" s="54">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5">
+      <c r="D105" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E105" s="54">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5">
+      <c r="D106" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E106" s="54">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5">
+      <c r="D107" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E107" s="54">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5">
+      <c r="D108" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E108" s="54">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5">
+      <c r="D109" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E109" s="54">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5">
+      <c r="D110" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E110" s="54">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5">
+      <c r="D111" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E111" s="54">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5">
+      <c r="D112" s="67">
+        <v>41347</v>
+      </c>
+      <c r="E112" s="54">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5">
+      <c r="D113" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E113" s="54">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5">
+      <c r="D114" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E114" s="54">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5">
+      <c r="D115" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E115" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5">
+      <c r="D116" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E116" s="54">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E117" s="54">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5">
+      <c r="D118" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E118" s="54">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5">
+      <c r="D119" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E119" s="54">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5">
+      <c r="D120" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E120" s="54">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5">
+      <c r="D121" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E121" s="54">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5">
+      <c r="D122" s="67">
+        <v>41348</v>
+      </c>
+      <c r="E122" s="54">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5">
+      <c r="D123" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E123" s="54">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5">
+      <c r="D124" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E124" s="54">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5">
+      <c r="D125" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E125" s="54">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5">
+      <c r="D126" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E126" s="54">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5">
+      <c r="D127" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E127" s="54">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5">
+      <c r="D128" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E128" s="54">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E129" s="54">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E130" s="54">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="D131" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E131" s="54">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5">
+      <c r="D132" s="67">
+        <v>41349</v>
+      </c>
+      <c r="E132" s="54">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5">
+      <c r="D133" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E133" s="54">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5">
+      <c r="D134" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E134" s="54">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="D135" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E135" s="54">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5">
+      <c r="D136" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E136" s="54">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E137" s="54">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E138" s="54">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E139" s="54">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="D140" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E140" s="54">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="D141" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E141" s="54">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5">
+      <c r="D142" s="67">
+        <v>41350</v>
+      </c>
+      <c r="E142" s="54">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E143" s="54">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E144" s="54">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="D145" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E145" s="54">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E146" s="54">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5">
+      <c r="D147" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E147" s="54">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5">
+      <c r="D148" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E148" s="54">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="D149" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E149" s="54">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5">
+      <c r="D150" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E150" s="54">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E151" s="54">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5">
+      <c r="D152" s="67">
+        <v>41351</v>
+      </c>
+      <c r="E152" s="54">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5">
+      <c r="D153" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E153" s="54">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E154" s="54">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5">
+      <c r="D155" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E155" s="54">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5">
+      <c r="D156" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E156" s="54">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5">
+      <c r="D157" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E157" s="54">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5">
+      <c r="D158" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E158" s="54">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5">
+      <c r="D159" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E159" s="54">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5">
+      <c r="D160" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E160" s="54">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E161" s="54">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5">
+      <c r="D162" s="67">
+        <v>41352</v>
+      </c>
+      <c r="E162" s="54">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E163" s="54">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="D164" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E164" s="54">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="D165" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E165" s="54">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E166" s="54">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5">
+      <c r="D167" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E167" s="54">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5">
+      <c r="D168" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E168" s="54">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5">
+      <c r="D169" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E169" s="54">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5">
+      <c r="D170" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E170" s="54">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="D171" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E171" s="54">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="D172" s="67">
+        <v>41353</v>
+      </c>
+      <c r="E172" s="54">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5">
+      <c r="D173" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E173" s="54">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5">
+      <c r="D174" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E174" s="54">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5">
+      <c r="D175" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E175" s="54">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5">
+      <c r="D176" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E176" s="54">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5">
+      <c r="D177" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E177" s="54">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5">
+      <c r="D178" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E178" s="54">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5">
+      <c r="D179" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E179" s="54">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5">
+      <c r="D180" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E180" s="54">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5">
+      <c r="D181" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E181" s="54">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5">
+      <c r="D182" s="67">
+        <v>41354</v>
+      </c>
+      <c r="E182" s="54">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5">
+      <c r="D183" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E183" s="54">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="184" spans="4:5">
+      <c r="D184" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E184" s="54">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5">
+      <c r="D185" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E185" s="54">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5">
+      <c r="D186" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E186" s="54">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5">
+      <c r="D187" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E187" s="54">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5">
+      <c r="D188" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E188" s="54">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5">
+      <c r="D189" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E189" s="54">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5">
+      <c r="D190" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E190" s="54">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="191" spans="4:5">
+      <c r="D191" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E191" s="54">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5">
+      <c r="D192" s="67">
+        <v>41355</v>
+      </c>
+      <c r="E192" s="54">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5">
+      <c r="D193" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E193" s="54">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5">
+      <c r="D194" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E194" s="54">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5">
+      <c r="D195" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E195" s="54">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5">
+      <c r="D196" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E196" s="54">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5">
+      <c r="D197" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E197" s="54">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5">
+      <c r="D198" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E198" s="54">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5">
+      <c r="D199" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E199" s="54">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5">
+      <c r="D200" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E200" s="54">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5">
+      <c r="D201" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E201" s="54">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5">
+      <c r="D202" s="67">
+        <v>41356</v>
+      </c>
+      <c r="E202" s="54">
+        <v>2.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I4:I22" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>